--- a/Code/Results/Cases/Case_5_114/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_114/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.633122915590718</v>
+        <v>3.276109556179165</v>
       </c>
       <c r="C2">
-        <v>0.4023198860895718</v>
+        <v>0.1710648090741813</v>
       </c>
       <c r="D2">
-        <v>0.1592832189573556</v>
+        <v>0.0508899230681692</v>
       </c>
       <c r="E2">
-        <v>0.02310010962720632</v>
+        <v>0.04304938155374316</v>
       </c>
       <c r="F2">
-        <v>7.36384575506753</v>
+        <v>6.946608703946481</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1211484930857338</v>
+        <v>0.1678877235440694</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.09163477252875651</v>
+        <v>0.2796376590313159</v>
       </c>
       <c r="M2">
-        <v>0.3972861691888099</v>
+        <v>0.6080991648005281</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.330394129854824</v>
+        <v>3.240473125576557</v>
       </c>
       <c r="C3">
-        <v>0.3435072059431548</v>
+        <v>0.1593196973515489</v>
       </c>
       <c r="D3">
-        <v>0.1386602689693035</v>
+        <v>0.04484173880611309</v>
       </c>
       <c r="E3">
-        <v>0.02198396523563062</v>
+        <v>0.04265931115019939</v>
       </c>
       <c r="F3">
-        <v>6.706004550587835</v>
+        <v>6.77616795570583</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1166492999672784</v>
+        <v>0.1663173386366132</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08726195476598519</v>
+        <v>0.2815785064646192</v>
       </c>
       <c r="M3">
-        <v>0.3556217121795768</v>
+        <v>0.6051180434261525</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.151112996429902</v>
+        <v>3.221219722281205</v>
       </c>
       <c r="C4">
-        <v>0.3083890709756929</v>
+        <v>0.1523128592112073</v>
       </c>
       <c r="D4">
-        <v>0.1262616611663105</v>
+        <v>0.04112014866902314</v>
       </c>
       <c r="E4">
-        <v>0.02130955379772903</v>
+        <v>0.0424142896310622</v>
       </c>
       <c r="F4">
-        <v>6.312634138274149</v>
+        <v>6.67300045888274</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.113944639542602</v>
+        <v>0.1653364572585083</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.08481708564458046</v>
+        <v>0.2829349338570992</v>
       </c>
       <c r="M4">
-        <v>0.3310610779306913</v>
+        <v>0.6037491444177547</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.079533565032648</v>
+        <v>3.214033277698775</v>
       </c>
       <c r="C5">
-        <v>0.2942916960754474</v>
+        <v>0.1495084758911673</v>
       </c>
       <c r="D5">
-        <v>0.1212646817719047</v>
+        <v>0.03960130796437511</v>
       </c>
       <c r="E5">
-        <v>0.02103677368921364</v>
+        <v>0.04231303790321927</v>
       </c>
       <c r="F5">
-        <v>6.154641331198661</v>
+        <v>6.631325723878859</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1128541012951736</v>
+        <v>0.164932456785035</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.08387716262213019</v>
+        <v>0.2835291633455128</v>
       </c>
       <c r="M5">
-        <v>0.3212835150530324</v>
+        <v>0.6033072436213018</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.067732291024015</v>
+        <v>3.212879769716096</v>
       </c>
       <c r="C6">
-        <v>0.2919627506624636</v>
+        <v>0.1490458731746003</v>
       </c>
       <c r="D6">
-        <v>0.1204379960282154</v>
+        <v>0.03934896152247802</v>
       </c>
       <c r="E6">
-        <v>0.02099158362152664</v>
+        <v>0.04229613989224124</v>
       </c>
       <c r="F6">
-        <v>6.128536790344839</v>
+        <v>6.624427641421022</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1126736411399811</v>
+        <v>0.164865111358047</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08372438582883035</v>
+        <v>0.2836303411314489</v>
       </c>
       <c r="M6">
-        <v>0.3196732124548802</v>
+        <v>0.6032408653933388</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.150141886136339</v>
+        <v>3.221120134760326</v>
       </c>
       <c r="C7">
-        <v>0.3081981292043849</v>
+        <v>0.1522748326541432</v>
       </c>
       <c r="D7">
-        <v>0.1261940587544359</v>
+        <v>0.04109967455033825</v>
       </c>
       <c r="E7">
-        <v>0.02130586755875008</v>
+        <v>0.04241292981897615</v>
       </c>
       <c r="F7">
-        <v>6.310494472997277</v>
+        <v>6.672436941662795</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1139298887021027</v>
+        <v>0.1653310262346643</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.08480418618932362</v>
+        <v>0.2829427798471542</v>
       </c>
       <c r="M7">
-        <v>0.3309283107324674</v>
+        <v>0.6037427155094051</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.527258998507534</v>
+        <v>3.26327599087881</v>
       </c>
       <c r="C8">
-        <v>0.3818121122536695</v>
+        <v>0.1669722901542912</v>
       </c>
       <c r="D8">
-        <v>0.1521107740520335</v>
+        <v>0.04880600971324611</v>
       </c>
       <c r="E8">
-        <v>0.022712555843027</v>
+        <v>0.042916020388021</v>
       </c>
       <c r="F8">
-        <v>7.134615427315879</v>
+        <v>6.887528931128372</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1195833080992657</v>
+        <v>0.1673496551617113</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.09007466434307076</v>
+        <v>0.280272700262195</v>
       </c>
       <c r="M8">
-        <v>0.3826918554621557</v>
+        <v>0.6069754091130477</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.328360362227158</v>
+        <v>3.366860676287672</v>
       </c>
       <c r="C9">
-        <v>0.5359199400361376</v>
+        <v>0.1974436504785331</v>
       </c>
       <c r="D9">
-        <v>0.2055817503881769</v>
+        <v>0.06386695805304043</v>
       </c>
       <c r="E9">
-        <v>0.02559379434618148</v>
+        <v>0.04385957043913535</v>
       </c>
       <c r="F9">
-        <v>8.851959098954609</v>
+        <v>7.321403551961737</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1312786997009958</v>
+        <v>0.1711803682580424</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1025204947645335</v>
+        <v>0.2763419084387948</v>
       </c>
       <c r="M9">
-        <v>0.493633228824244</v>
+        <v>0.6169838819495723</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.969476148733122</v>
+        <v>3.455831124156191</v>
       </c>
       <c r="C10">
-        <v>0.6581432698010872</v>
+        <v>0.2208750269706172</v>
       </c>
       <c r="D10">
-        <v>0.2473748528420572</v>
+        <v>0.07491882383139625</v>
       </c>
       <c r="E10">
-        <v>0.02784514703472141</v>
+        <v>0.04452767904979638</v>
       </c>
       <c r="F10">
-        <v>10.20371185926157</v>
+        <v>7.647994882885371</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1404858869144832</v>
+        <v>0.1739230815191277</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1132856637082824</v>
+        <v>0.2742474856621655</v>
       </c>
       <c r="M10">
-        <v>0.5830493568670718</v>
+        <v>0.626586735843496</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.276636493150306</v>
+        <v>3.499127166959227</v>
       </c>
       <c r="C11">
-        <v>0.7165400531940804</v>
+        <v>0.2317699354061631</v>
       </c>
       <c r="D11">
-        <v>0.2671738193820374</v>
+        <v>0.07994760146434032</v>
       </c>
       <c r="E11">
-        <v>0.02891519252788743</v>
+        <v>0.04482640719533126</v>
       </c>
       <c r="F11">
-        <v>10.84584304959475</v>
+        <v>7.798370922274842</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1448743420637726</v>
+        <v>0.1751565949932612</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1186264407463113</v>
+        <v>0.2734665935958844</v>
       </c>
       <c r="M11">
-        <v>0.6260319960918252</v>
+        <v>0.6314469276339381</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.395595961839149</v>
+        <v>3.515930204245251</v>
       </c>
       <c r="C12">
-        <v>0.7391414657570579</v>
+        <v>0.2359301391719839</v>
       </c>
       <c r="D12">
-        <v>0.274808730200462</v>
+        <v>0.08185234598535374</v>
       </c>
       <c r="E12">
-        <v>0.02932871424632122</v>
+        <v>0.04493879929563516</v>
       </c>
       <c r="F12">
-        <v>11.09368308647203</v>
+        <v>7.855582152492218</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1465716664779215</v>
+        <v>0.1756217652978904</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1207219361311758</v>
+        <v>0.2731955732921065</v>
       </c>
       <c r="M12">
-        <v>0.642699773644992</v>
+        <v>0.6333583062042791</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.369850903004135</v>
+        <v>3.51229320403462</v>
       </c>
       <c r="C13">
-        <v>0.7342506145841412</v>
+        <v>0.2350326186821121</v>
       </c>
       <c r="D13">
-        <v>0.2731578684261535</v>
+        <v>0.08144210043977296</v>
       </c>
       <c r="E13">
-        <v>0.02923925391307858</v>
+        <v>0.04491462581875361</v>
       </c>
       <c r="F13">
-        <v>11.04008457092038</v>
+        <v>7.843248697420904</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1462044171873984</v>
+        <v>0.1755216669565165</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.120267218822022</v>
+        <v>0.2732528448448761</v>
       </c>
       <c r="M13">
-        <v>0.6390916086250797</v>
+        <v>0.6329434985760045</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.286367724348622</v>
+        <v>3.50050137995737</v>
       </c>
       <c r="C14">
-        <v>0.7183891606964323</v>
+        <v>0.2321115020560001</v>
       </c>
       <c r="D14">
-        <v>0.2677990385373192</v>
+        <v>0.08010429520381024</v>
       </c>
       <c r="E14">
-        <v>0.02894903542661176</v>
+        <v>0.04483566828463115</v>
       </c>
       <c r="F14">
-        <v>10.86613436427029</v>
+        <v>7.803072330737677</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1450132272257747</v>
+        <v>0.1751949030176227</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1187973151731541</v>
+        <v>0.2734438019901333</v>
       </c>
       <c r="M14">
-        <v>0.6273950453236878</v>
+        <v>0.6316027551318584</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.235589802525226</v>
+        <v>3.493331706005335</v>
       </c>
       <c r="C15">
-        <v>0.7087399035328872</v>
+        <v>0.230326750419664</v>
       </c>
       <c r="D15">
-        <v>0.2645352968313119</v>
+        <v>0.07928491852527486</v>
       </c>
       <c r="E15">
-        <v>0.02877240835324191</v>
+        <v>0.04478721000650054</v>
       </c>
       <c r="F15">
-        <v>10.76021915733315</v>
+        <v>7.778498141296836</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1442884346970779</v>
+        <v>0.1749945017808585</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1179067744455367</v>
+        <v>0.2735639828780592</v>
       </c>
       <c r="M15">
-        <v>0.6202834531578461</v>
+        <v>0.6307907545528622</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.949748398157169</v>
+        <v>3.453058585346923</v>
       </c>
       <c r="C16">
-        <v>0.6543901517933364</v>
+        <v>0.2201678180024373</v>
       </c>
       <c r="D16">
-        <v>0.2460987645398802</v>
+        <v>0.07459022988484776</v>
       </c>
       <c r="E16">
-        <v>0.02777628007663058</v>
+        <v>0.0445080533753428</v>
       </c>
       <c r="F16">
-        <v>10.16235719581078</v>
+        <v>7.638204441119342</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1402036661804082</v>
+        <v>0.1738421922476121</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1129463138697844</v>
+        <v>0.274301974807706</v>
       </c>
       <c r="M16">
-        <v>0.5802916076429767</v>
+        <v>0.6262790248025567</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.77863960437594</v>
+        <v>3.429076630071847</v>
       </c>
       <c r="C17">
-        <v>0.6218208686258038</v>
+        <v>0.2139964889551038</v>
       </c>
       <c r="D17">
-        <v>0.2350061551212121</v>
+        <v>0.07171070266721813</v>
       </c>
       <c r="E17">
-        <v>0.02717806513760035</v>
+        <v>0.04433548104457419</v>
       </c>
       <c r="F17">
-        <v>9.803063325751197</v>
+        <v>7.552606890770249</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1377534661783635</v>
+        <v>0.1731317329668336</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1100229562772128</v>
+        <v>0.2747987083805299</v>
       </c>
       <c r="M17">
-        <v>0.556387870715227</v>
+        <v>0.6236373323799569</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.681653952238378</v>
+        <v>3.415548437924372</v>
       </c>
       <c r="C18">
-        <v>0.603345176097946</v>
+        <v>0.2104690656431956</v>
       </c>
       <c r="D18">
-        <v>0.2286983880728428</v>
+        <v>0.07005457355246847</v>
       </c>
       <c r="E18">
-        <v>0.02683818722711084</v>
+        <v>0.04423573169094563</v>
       </c>
       <c r="F18">
-        <v>9.598915595271762</v>
+        <v>7.503543190871682</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1363625394369627</v>
+        <v>0.1727217565811934</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1083826356921804</v>
+        <v>0.2751005952800014</v>
       </c>
       <c r="M18">
-        <v>0.5428520869788116</v>
+        <v>0.6221641786322962</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.649050700465295</v>
+        <v>3.411013586060733</v>
       </c>
       <c r="C19">
-        <v>0.5971314518859856</v>
+        <v>0.2092785283327032</v>
       </c>
       <c r="D19">
-        <v>0.2265744485301298</v>
+        <v>0.06949384520501667</v>
       </c>
       <c r="E19">
-        <v>0.02672378451229829</v>
+        <v>0.04420187352746918</v>
       </c>
       <c r="F19">
-        <v>9.530204256664234</v>
+        <v>7.486960004764939</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1358945630161621</v>
+        <v>0.1725827125614465</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1078340568144185</v>
+        <v>0.2752055886384639</v>
       </c>
       <c r="M19">
-        <v>0.5383040416506333</v>
+        <v>0.6216733361923659</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.796703494682959</v>
+        <v>3.43160204915938</v>
       </c>
       <c r="C20">
-        <v>0.6252607237518077</v>
+        <v>0.2146511393309822</v>
       </c>
       <c r="D20">
-        <v>0.2361793254899425</v>
+        <v>0.0720172210202179</v>
       </c>
       <c r="E20">
-        <v>0.02724130009421266</v>
+        <v>0.04435390228202252</v>
       </c>
       <c r="F20">
-        <v>9.841046002579361</v>
+        <v>7.561701276874913</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1380123485363036</v>
+        <v>0.1732075004164493</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1103298352239435</v>
+        <v>0.274744156004175</v>
       </c>
       <c r="M20">
-        <v>0.5589100203409458</v>
+        <v>0.6239137539948416</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.310813317948089</v>
+        <v>3.503953842904082</v>
       </c>
       <c r="C21">
-        <v>0.7230340527092096</v>
+        <v>0.2329685624219167</v>
       </c>
       <c r="D21">
-        <v>0.2693691109394081</v>
+        <v>0.08049722642998347</v>
       </c>
       <c r="E21">
-        <v>0.02903403846795882</v>
+        <v>0.04485887968984148</v>
       </c>
       <c r="F21">
-        <v>10.91709400604907</v>
+        <v>7.814865797725247</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1453620849287276</v>
+        <v>0.1752909331928869</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1192269965572521</v>
+        <v>0.2733870434741732</v>
       </c>
       <c r="M21">
-        <v>0.6308194655021069</v>
+        <v>0.6319946372562484</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.662477333992626</v>
+        <v>3.553617598480571</v>
       </c>
       <c r="C22">
-        <v>0.7898300124190314</v>
+        <v>0.2451416730317533</v>
       </c>
       <c r="D22">
-        <v>0.2918764033367438</v>
+        <v>0.08604218711603551</v>
       </c>
       <c r="E22">
-        <v>0.0302552448953648</v>
+        <v>0.04518466635447282</v>
       </c>
       <c r="F22">
-        <v>11.64808338044088</v>
+        <v>7.981883610621992</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1503766304966589</v>
+        <v>0.1766413492328702</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1254732319188463</v>
+        <v>0.2726439728954659</v>
       </c>
       <c r="M22">
-        <v>0.6801324043492656</v>
+        <v>0.6376894978826968</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.473197354548461</v>
+        <v>3.526892934420403</v>
       </c>
       <c r="C23">
-        <v>0.7538821445626809</v>
+        <v>0.2386259974128677</v>
       </c>
       <c r="D23">
-        <v>0.2797799933358505</v>
+        <v>0.08308238932497147</v>
       </c>
       <c r="E23">
-        <v>0.02959826909393204</v>
+        <v>0.04501117042341196</v>
       </c>
       <c r="F23">
-        <v>11.25511390921986</v>
+        <v>7.892597931706518</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1476783949590654</v>
+        <v>0.1759216002456903</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1220965059486403</v>
+        <v>0.2730274072280281</v>
       </c>
       <c r="M23">
-        <v>0.6535786720177583</v>
+        <v>0.6346121329801733</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.788532519688488</v>
+        <v>3.430459499499534</v>
       </c>
       <c r="C24">
-        <v>0.6237047964665976</v>
+        <v>0.2143551079150825</v>
       </c>
       <c r="D24">
-        <v>0.2356487203933426</v>
+        <v>0.07187864612041039</v>
       </c>
       <c r="E24">
-        <v>0.02721269909931578</v>
+        <v>0.04434557570901987</v>
       </c>
       <c r="F24">
-        <v>9.823866567942019</v>
+        <v>7.557589246109785</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1378952531009539</v>
+        <v>0.1731732507063981</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1101909702278192</v>
+        <v>0.2747687683350222</v>
       </c>
       <c r="M24">
-        <v>0.5577691167279824</v>
+        <v>0.623788641794313</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.103633108740098</v>
+        <v>3.336587318046099</v>
       </c>
       <c r="C25">
-        <v>0.4928984621648738</v>
+        <v>0.1890198127254052</v>
       </c>
       <c r="D25">
-        <v>0.1907483284393834</v>
+        <v>0.05979622062119461</v>
       </c>
       <c r="E25">
-        <v>0.02479562441096572</v>
+        <v>0.04360880639189979</v>
       </c>
       <c r="F25">
-        <v>8.37385215184122</v>
+        <v>7.202688595208883</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1280266413622151</v>
+        <v>0.1701571032338549</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.09889609321162851</v>
+        <v>0.2772657915718284</v>
       </c>
       <c r="M25">
-        <v>0.4624072951693492</v>
+        <v>0.6138822324665298</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_114/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_114/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.276109556179165</v>
+        <v>2.633122915590604</v>
       </c>
       <c r="C2">
-        <v>0.1710648090741813</v>
+        <v>0.4023198860892307</v>
       </c>
       <c r="D2">
-        <v>0.0508899230681692</v>
+        <v>0.159283218957583</v>
       </c>
       <c r="E2">
-        <v>0.04304938155374316</v>
+        <v>0.02310010962719478</v>
       </c>
       <c r="F2">
-        <v>6.946608703946481</v>
+        <v>7.363845755067473</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1678877235440694</v>
+        <v>0.1211484930856201</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2796376590313159</v>
+        <v>0.09163477252874941</v>
       </c>
       <c r="M2">
-        <v>0.6080991648005281</v>
+        <v>0.3972861691888099</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.240473125576557</v>
+        <v>2.330394129854596</v>
       </c>
       <c r="C3">
-        <v>0.1593196973515489</v>
+        <v>0.3435072059426432</v>
       </c>
       <c r="D3">
-        <v>0.04484173880611309</v>
+        <v>0.1386602689692751</v>
       </c>
       <c r="E3">
-        <v>0.04265931115019939</v>
+        <v>0.02198396523565105</v>
       </c>
       <c r="F3">
-        <v>6.77616795570583</v>
+        <v>6.706004550587892</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1663173386366132</v>
+        <v>0.1166492999674453</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2815785064646192</v>
+        <v>0.08726195476594256</v>
       </c>
       <c r="M3">
-        <v>0.6051180434261525</v>
+        <v>0.3556217121795697</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.221219722281205</v>
+        <v>2.151112996429731</v>
       </c>
       <c r="C4">
-        <v>0.1523128592112073</v>
+        <v>0.3083890709756361</v>
       </c>
       <c r="D4">
-        <v>0.04112014866902314</v>
+        <v>0.1262616611665237</v>
       </c>
       <c r="E4">
-        <v>0.0424142896310622</v>
+        <v>0.02130955379768196</v>
       </c>
       <c r="F4">
-        <v>6.67300045888274</v>
+        <v>6.312634138274205</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1653364572585083</v>
+        <v>0.1139446395425132</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2829349338570992</v>
+        <v>0.08481708564469415</v>
       </c>
       <c r="M4">
-        <v>0.6037491444177547</v>
+        <v>0.3310610779306629</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.214033277698775</v>
+        <v>2.079533565033046</v>
       </c>
       <c r="C5">
-        <v>0.1495084758911673</v>
+        <v>0.2942916960764705</v>
       </c>
       <c r="D5">
-        <v>0.03960130796437511</v>
+        <v>0.1212646817713505</v>
       </c>
       <c r="E5">
-        <v>0.04231303790321927</v>
+        <v>0.02103677368936197</v>
       </c>
       <c r="F5">
-        <v>6.631325723878859</v>
+        <v>6.154641331198633</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.164932456785035</v>
+        <v>0.1128541012951274</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2835291633455128</v>
+        <v>0.08387716262215861</v>
       </c>
       <c r="M5">
-        <v>0.6033072436213018</v>
+        <v>0.3212835150530466</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.212879769716096</v>
+        <v>2.067732291024242</v>
       </c>
       <c r="C6">
-        <v>0.1490458731746003</v>
+        <v>0.2919627506620373</v>
       </c>
       <c r="D6">
-        <v>0.03934896152247802</v>
+        <v>0.1204379960282012</v>
       </c>
       <c r="E6">
-        <v>0.04229613989224124</v>
+        <v>0.02099158362152576</v>
       </c>
       <c r="F6">
-        <v>6.624427641421022</v>
+        <v>6.12853679034481</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.164865111358047</v>
+        <v>0.1126736411400948</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2836303411314489</v>
+        <v>0.08372438582873087</v>
       </c>
       <c r="M6">
-        <v>0.6032408653933388</v>
+        <v>0.3196732124549158</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.221120134760326</v>
+        <v>2.150141886136339</v>
       </c>
       <c r="C7">
-        <v>0.1522748326541432</v>
+        <v>0.308198129204726</v>
       </c>
       <c r="D7">
-        <v>0.04109967455033825</v>
+        <v>0.1261940587546206</v>
       </c>
       <c r="E7">
-        <v>0.04241292981897615</v>
+        <v>0.02130586755871988</v>
       </c>
       <c r="F7">
-        <v>6.672436941662795</v>
+        <v>6.310494472997277</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1653310262346643</v>
+        <v>0.1139298887021098</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2829427798471542</v>
+        <v>0.08480418618920282</v>
       </c>
       <c r="M7">
-        <v>0.6037427155094051</v>
+        <v>0.3309283107324674</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.26327599087881</v>
+        <v>2.527258998507364</v>
       </c>
       <c r="C8">
-        <v>0.1669722901542912</v>
+        <v>0.3818121122541811</v>
       </c>
       <c r="D8">
-        <v>0.04880600971324611</v>
+        <v>0.152110774052062</v>
       </c>
       <c r="E8">
-        <v>0.042916020388021</v>
+        <v>0.02271255584308651</v>
       </c>
       <c r="F8">
-        <v>6.887528931128372</v>
+        <v>7.134615427315936</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1673496551617113</v>
+        <v>0.1195833080992337</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.280272700262195</v>
+        <v>0.09007466434322708</v>
       </c>
       <c r="M8">
-        <v>0.6069754091130477</v>
+        <v>0.3826918554621699</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.366860676287672</v>
+        <v>3.328360362227045</v>
       </c>
       <c r="C9">
-        <v>0.1974436504785331</v>
+        <v>0.5359199400361376</v>
       </c>
       <c r="D9">
-        <v>0.06386695805304043</v>
+        <v>0.2055817503881769</v>
       </c>
       <c r="E9">
-        <v>0.04385957043913535</v>
+        <v>0.02559379434612996</v>
       </c>
       <c r="F9">
-        <v>7.321403551961737</v>
+        <v>8.85195909895458</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1711803682580424</v>
+        <v>0.1312786997010065</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2763419084387948</v>
+        <v>0.1025204947646472</v>
       </c>
       <c r="M9">
-        <v>0.6169838819495723</v>
+        <v>0.4936332288242511</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.455831124156191</v>
+        <v>3.969476148732781</v>
       </c>
       <c r="C10">
-        <v>0.2208750269706172</v>
+        <v>0.6581432698010588</v>
       </c>
       <c r="D10">
-        <v>0.07491882383139625</v>
+        <v>0.2473748528422703</v>
       </c>
       <c r="E10">
-        <v>0.04452767904979638</v>
+        <v>0.02784514703476493</v>
       </c>
       <c r="F10">
-        <v>7.647994882885371</v>
+        <v>10.20371185926166</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1739230815191277</v>
+        <v>0.1404858869146501</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2742474856621655</v>
+        <v>0.1132856637082256</v>
       </c>
       <c r="M10">
-        <v>0.626586735843496</v>
+        <v>0.5830493568670718</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.499127166959227</v>
+        <v>4.276636493150647</v>
       </c>
       <c r="C11">
-        <v>0.2317699354061631</v>
+        <v>0.7165400531936541</v>
       </c>
       <c r="D11">
-        <v>0.07994760146434032</v>
+        <v>0.2671738193823359</v>
       </c>
       <c r="E11">
-        <v>0.04482640719533126</v>
+        <v>0.02891519252785812</v>
       </c>
       <c r="F11">
-        <v>7.798370922274842</v>
+        <v>10.84584304959463</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1751565949932612</v>
+        <v>0.1448743420636873</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2734665935958844</v>
+        <v>0.118626440746489</v>
       </c>
       <c r="M11">
-        <v>0.6314469276339381</v>
+        <v>0.6260319960918181</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.515930204245251</v>
+        <v>4.395595961838808</v>
       </c>
       <c r="C12">
-        <v>0.2359301391719839</v>
+        <v>0.7391414657566884</v>
       </c>
       <c r="D12">
-        <v>0.08185234598535374</v>
+        <v>0.2748087302004762</v>
       </c>
       <c r="E12">
-        <v>0.04493879929563516</v>
+        <v>0.02932871424628125</v>
       </c>
       <c r="F12">
-        <v>7.855582152492218</v>
+        <v>11.09368308647203</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1756217652978904</v>
+        <v>0.1465716664779961</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2731955732921065</v>
+        <v>0.1207219361309058</v>
       </c>
       <c r="M12">
-        <v>0.6333583062042791</v>
+        <v>0.6426997736450417</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.51229320403462</v>
+        <v>4.369850903004135</v>
       </c>
       <c r="C13">
-        <v>0.2350326186821121</v>
+        <v>0.7342506145847381</v>
       </c>
       <c r="D13">
-        <v>0.08144210043977296</v>
+        <v>0.273157868426253</v>
       </c>
       <c r="E13">
-        <v>0.04491462581875361</v>
+        <v>0.02923925391300486</v>
       </c>
       <c r="F13">
-        <v>7.843248697420904</v>
+        <v>11.04008457092027</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1755216669565165</v>
+        <v>0.1462044171872066</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2732528448448761</v>
+        <v>0.1202672188221996</v>
       </c>
       <c r="M13">
-        <v>0.6329434985760045</v>
+        <v>0.6390916086250868</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.50050137995737</v>
+        <v>4.286367724348736</v>
       </c>
       <c r="C14">
-        <v>0.2321115020560001</v>
+        <v>0.7183891606949828</v>
       </c>
       <c r="D14">
-        <v>0.08010429520381024</v>
+        <v>0.2677990385373192</v>
       </c>
       <c r="E14">
-        <v>0.04483566828463115</v>
+        <v>0.02894903542665705</v>
       </c>
       <c r="F14">
-        <v>7.803072330737677</v>
+        <v>10.86613436427041</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1751949030176227</v>
+        <v>0.1450132272256859</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2734438019901333</v>
+        <v>0.1187973151730901</v>
       </c>
       <c r="M14">
-        <v>0.6316027551318584</v>
+        <v>0.6273950453237163</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.493331706005335</v>
+        <v>4.235589802525112</v>
       </c>
       <c r="C15">
-        <v>0.230326750419664</v>
+        <v>0.7087399035324324</v>
       </c>
       <c r="D15">
-        <v>0.07928491852527486</v>
+        <v>0.2645352968310988</v>
       </c>
       <c r="E15">
-        <v>0.04478721000650054</v>
+        <v>0.02877240835330674</v>
       </c>
       <c r="F15">
-        <v>7.778498141296836</v>
+        <v>10.7602191573331</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1749945017808585</v>
+        <v>0.1442884346968825</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2735639828780592</v>
+        <v>0.1179067744456006</v>
       </c>
       <c r="M15">
-        <v>0.6307907545528622</v>
+        <v>0.6202834531578603</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.453058585346923</v>
+        <v>3.949748398157567</v>
       </c>
       <c r="C16">
-        <v>0.2201678180024373</v>
+        <v>0.6543901517934216</v>
       </c>
       <c r="D16">
-        <v>0.07459022988484776</v>
+        <v>0.2460987645402355</v>
       </c>
       <c r="E16">
-        <v>0.0445080533753428</v>
+        <v>0.02777628007655419</v>
       </c>
       <c r="F16">
-        <v>7.638204441119342</v>
+        <v>10.16235719581059</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1738421922476121</v>
+        <v>0.1402036661806214</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.274301974807706</v>
+        <v>0.1129463138696636</v>
       </c>
       <c r="M16">
-        <v>0.6262790248025567</v>
+        <v>0.5802916076429909</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.429076630071847</v>
+        <v>3.77863960437594</v>
       </c>
       <c r="C17">
-        <v>0.2139964889551038</v>
+        <v>0.6218208686254911</v>
       </c>
       <c r="D17">
-        <v>0.07171070266721813</v>
+        <v>0.2350061551214964</v>
       </c>
       <c r="E17">
-        <v>0.04433548104457419</v>
+        <v>0.02717806513750887</v>
       </c>
       <c r="F17">
-        <v>7.552606890770249</v>
+        <v>9.803063325751083</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1731317329668336</v>
+        <v>0.1377534661782782</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2747987083805299</v>
+        <v>0.110022956277362</v>
       </c>
       <c r="M17">
-        <v>0.6236373323799569</v>
+        <v>0.5563878707152199</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.415548437924372</v>
+        <v>3.681653952238321</v>
       </c>
       <c r="C18">
-        <v>0.2104690656431956</v>
+        <v>0.6033451760979176</v>
       </c>
       <c r="D18">
-        <v>0.07005457355246847</v>
+        <v>0.2286983880728855</v>
       </c>
       <c r="E18">
-        <v>0.04423573169094563</v>
+        <v>0.02683818722706466</v>
       </c>
       <c r="F18">
-        <v>7.503543190871682</v>
+        <v>9.598915595271734</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1727217565811934</v>
+        <v>0.1363625394367922</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2751005952800014</v>
+        <v>0.1083826356919104</v>
       </c>
       <c r="M18">
-        <v>0.6221641786322962</v>
+        <v>0.5428520869787974</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.411013586060733</v>
+        <v>3.649050700465466</v>
       </c>
       <c r="C19">
-        <v>0.2092785283327032</v>
+        <v>0.5971314518858435</v>
       </c>
       <c r="D19">
-        <v>0.06949384520501667</v>
+        <v>0.226574448529945</v>
       </c>
       <c r="E19">
-        <v>0.04420187352746918</v>
+        <v>0.02672378451235513</v>
       </c>
       <c r="F19">
-        <v>7.486960004764939</v>
+        <v>9.530204256664376</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1725827125614465</v>
+        <v>0.1358945630160626</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2752055886384639</v>
+        <v>0.1078340568145464</v>
       </c>
       <c r="M19">
-        <v>0.6216733361923659</v>
+        <v>0.5383040416506333</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.43160204915938</v>
+        <v>3.796703494682902</v>
       </c>
       <c r="C20">
-        <v>0.2146511393309822</v>
+        <v>0.6252607237517225</v>
       </c>
       <c r="D20">
-        <v>0.0720172210202179</v>
+        <v>0.236179325489374</v>
       </c>
       <c r="E20">
-        <v>0.04435390228202252</v>
+        <v>0.02724130009434944</v>
       </c>
       <c r="F20">
-        <v>7.561701276874913</v>
+        <v>9.841046002579503</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1732075004164493</v>
+        <v>0.1380123485362112</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.274744156004175</v>
+        <v>0.1103298352240785</v>
       </c>
       <c r="M20">
-        <v>0.6239137539948416</v>
+        <v>0.5589100203409316</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.503953842904082</v>
+        <v>4.310813317948032</v>
       </c>
       <c r="C21">
-        <v>0.2329685624219167</v>
+        <v>0.7230340527097212</v>
       </c>
       <c r="D21">
-        <v>0.08049722642998347</v>
+        <v>0.2693691109392518</v>
       </c>
       <c r="E21">
-        <v>0.04485887968984148</v>
+        <v>0.02903403846816666</v>
       </c>
       <c r="F21">
-        <v>7.814865797725247</v>
+        <v>10.9170940060489</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1752909331928869</v>
+        <v>0.1453620849289052</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2733870434741732</v>
+        <v>0.1192269965574226</v>
       </c>
       <c r="M21">
-        <v>0.6319946372562484</v>
+        <v>0.6308194655021424</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.553617598480571</v>
+        <v>4.662477333992626</v>
       </c>
       <c r="C22">
-        <v>0.2451416730317533</v>
+        <v>0.7898300124194861</v>
       </c>
       <c r="D22">
-        <v>0.08604218711603551</v>
+        <v>0.2918764033367438</v>
       </c>
       <c r="E22">
-        <v>0.04518466635447282</v>
+        <v>0.03025524489523868</v>
       </c>
       <c r="F22">
-        <v>7.981883610621992</v>
+        <v>11.64808338044105</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1766413492328702</v>
+        <v>0.1503766304966163</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2726439728954659</v>
+        <v>0.1254732319189245</v>
       </c>
       <c r="M22">
-        <v>0.6376894978826968</v>
+        <v>0.6801324043492514</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.526892934420403</v>
+        <v>4.473197354548688</v>
       </c>
       <c r="C23">
-        <v>0.2386259974128677</v>
+        <v>0.7538821445627093</v>
       </c>
       <c r="D23">
-        <v>0.08308238932497147</v>
+        <v>0.2797799933361631</v>
       </c>
       <c r="E23">
-        <v>0.04501117042341196</v>
+        <v>0.02959826909390095</v>
       </c>
       <c r="F23">
-        <v>7.892597931706518</v>
+        <v>11.25511390921963</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1759216002456903</v>
+        <v>0.1476783949589944</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2730274072280281</v>
+        <v>0.12209650594869</v>
       </c>
       <c r="M23">
-        <v>0.6346121329801733</v>
+        <v>0.6535786720177015</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.430459499499534</v>
+        <v>3.788532519688147</v>
       </c>
       <c r="C24">
-        <v>0.2143551079150825</v>
+        <v>0.6237047964666544</v>
       </c>
       <c r="D24">
-        <v>0.07187864612041039</v>
+        <v>0.23564872039357</v>
       </c>
       <c r="E24">
-        <v>0.04434557570901987</v>
+        <v>0.02721269909932467</v>
       </c>
       <c r="F24">
-        <v>7.557589246109785</v>
+        <v>9.823866567942048</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1731732507063981</v>
+        <v>0.1378952531010142</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2747687683350222</v>
+        <v>0.110190970227741</v>
       </c>
       <c r="M24">
-        <v>0.623788641794313</v>
+        <v>0.557769116728025</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.336587318046099</v>
+        <v>3.103633108739984</v>
       </c>
       <c r="C25">
-        <v>0.1890198127254052</v>
+        <v>0.4928984621649306</v>
       </c>
       <c r="D25">
-        <v>0.05979622062119461</v>
+        <v>0.1907483284391986</v>
       </c>
       <c r="E25">
-        <v>0.04360880639189979</v>
+        <v>0.02479562441094174</v>
       </c>
       <c r="F25">
-        <v>7.202688595208883</v>
+        <v>8.373852151841021</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1701571032338549</v>
+        <v>0.1280266413624851</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2772657915718284</v>
+        <v>0.09889609321169246</v>
       </c>
       <c r="M25">
-        <v>0.6138822324665298</v>
+        <v>0.4624072951693421</v>
       </c>
       <c r="N25">
         <v>0</v>
